--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.7.LAP_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.7.LAP_exp.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E38E2-06DD-4A6A-A2E3-372A50ED83C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="6885" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Proveedores" sheetId="2" r:id="rId2"/>
-    <sheet name="LAP" sheetId="6" r:id="rId3"/>
-    <sheet name="Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Factores" sheetId="5" r:id="rId5"/>
+    <sheet name="Variables" sheetId="4" r:id="rId3"/>
+    <sheet name="Factores" sheetId="5" r:id="rId4"/>
+    <sheet name="LAP" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -25,22 +26,28 @@
     <definedName name="Lista_meses">Variables!$U$4:$U$15</definedName>
     <definedName name="Tabla_mes">Variables!$U$4:$V$15</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,12 +65,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -760,13 +767,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1428,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1512,60 +1519,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="11" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="11" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="11" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="11" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1580,9 +1551,6 @@
     <xf numFmtId="4" fontId="27" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1615,7 +1583,7 @@
     <xf numFmtId="3" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1623,6 +1591,45 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1663,7 +1670,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1762,7 +1775,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1857,7 +1876,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1910,7 +1935,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1947,7 +1978,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4" descr="Imagen relacionada"/>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="Imagen relacionada">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2281,7 +2318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2308,24 +2345,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -2427,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2455,14 +2492,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2569,193 +2606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="62"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="69"/>
-    </row>
-    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="76">
-        <v>2017</v>
-      </c>
-      <c r="C7" s="77">
-        <v>43524</v>
-      </c>
-      <c r="D7" s="78">
-        <v>250</v>
-      </c>
-      <c r="E7" s="78">
-        <v>120</v>
-      </c>
-      <c r="F7" s="78">
-        <v>110000</v>
-      </c>
-      <c r="G7" s="78">
-        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="79">
-        <f>(((D7-E7)/(1-Factores!C7))*1/1000000*Factores!Q7*F7*Variables!$N$3)*G7/12</f>
-        <v>22041.403703703701</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="76">
-        <v>2018</v>
-      </c>
-      <c r="C8" s="77">
-        <v>43647</v>
-      </c>
-      <c r="D8" s="78">
-        <v>220</v>
-      </c>
-      <c r="E8" s="78">
-        <v>110</v>
-      </c>
-      <c r="F8" s="78">
-        <v>150000</v>
-      </c>
-      <c r="G8" s="78">
-        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="H8" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="79">
-        <f>(((D8-E8)/(1-Factores!C10))*1/1000000*Factores!Q10*F8*Variables!$N$3)*G8/12</f>
-        <v>22273.111111111113</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84">
-        <f>SUM(I7:I8)</f>
-        <v>44314.514814814815</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:I5"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
-      <formula1>Lista_meses</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:PG34"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,10 +2679,10 @@
         <f>M3*365</f>
         <v>4380</v>
       </c>
-      <c r="U3" s="85" t="s">
+      <c r="U3" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="86" t="s">
+      <c r="V3" s="73" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4446,9 +4301,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
-    <hyperlink ref="E29" r:id="rId3"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E29" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4457,12 +4312,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,38 +4675,220 @@
       <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="60" t="s">
+      <c r="O25" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
   <legacyDrawing r:id="rId10"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="61"/>
+      <c r="H6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="63">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="64">
+        <v>43524</v>
+      </c>
+      <c r="D7" s="65">
+        <v>250</v>
+      </c>
+      <c r="E7" s="65">
+        <v>120</v>
+      </c>
+      <c r="F7" s="65">
+        <v>110000</v>
+      </c>
+      <c r="G7" s="65">
+        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="66">
+        <f>(((D7-E7)/(1-Factores!C7))*1/1000000*Factores!Q7*F7*Variables!$N$3)*G7/12</f>
+        <v>22041.403703703701</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="63">
+        <v>2016</v>
+      </c>
+      <c r="C8" s="64">
+        <v>43647</v>
+      </c>
+      <c r="D8" s="65">
+        <v>220</v>
+      </c>
+      <c r="E8" s="65">
+        <v>110</v>
+      </c>
+      <c r="F8" s="65">
+        <v>150000</v>
+      </c>
+      <c r="G8" s="65">
+        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="66">
+        <f>(((D8-E8)/(1-Factores!C10))*1/1000000*Factores!Q10*F8*Variables!$N$3)*G8/12</f>
+        <v>22273.111111111113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71">
+        <f>SUM(I7:I8)</f>
+        <v>44314.514814814815</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>Lista_meses</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.7.LAP_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.7.LAP_exp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E38E2-06DD-4A6A-A2E3-372A50ED83C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C54D163-25A3-4850-8DD2-131B4FFC8179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Lista_lampara">Variables!$X$4:$X$6</definedName>
     <definedName name="Lista_meses">Variables!$U$4:$U$15</definedName>
     <definedName name="Tabla_mes">Variables!$U$4:$V$15</definedName>
   </definedNames>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>Medida</t>
   </si>
@@ -675,9 +676,6 @@
     </r>
   </si>
   <si>
-    <t>Inicio de Operaciones</t>
-  </si>
-  <si>
     <t>Potencia BAU (W)</t>
   </si>
   <si>
@@ -762,6 +760,30 @@
       </rPr>
       <t xml:space="preserve"> Lámparas de alumbrado público</t>
     </r>
+  </si>
+  <si>
+    <t>Tipo INI</t>
+  </si>
+  <si>
+    <t>Lampara</t>
+  </si>
+  <si>
+    <t>Fluorescente lineal</t>
+  </si>
+  <si>
+    <t>Incandescente</t>
+  </si>
+  <si>
+    <t>Ahorrador (LFC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo L. BAU </t>
+  </si>
+  <si>
+    <t>Especificación del la lámpara (incandescente, ahorrador, etc.)</t>
+  </si>
+  <si>
+    <t>Especificación del la lámpara (LED)</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1459,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1622,13 +1644,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2610,7 +2641,7 @@
   <dimension ref="B2:PG34"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2655,7 @@
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
@@ -2650,7 +2681,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
@@ -2680,21 +2711,27 @@
         <v>4380</v>
       </c>
       <c r="U3" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X3" s="72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U4" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V4" s="35">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>53</v>
       </c>
@@ -2702,13 +2739,16 @@
         <v>58</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V5" s="35">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X5" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>62</v>
       </c>
@@ -2717,13 +2757,16 @@
       </c>
       <c r="I6"/>
       <c r="U6" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V6" s="35">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X6" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>59</v>
       </c>
@@ -2742,7 +2785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>62</v>
       </c>
@@ -2751,13 +2794,13 @@
       </c>
       <c r="D8" s="23"/>
       <c r="U8" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V8" s="35">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>59</v>
       </c>
@@ -2775,7 +2818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>62</v>
       </c>
@@ -2784,13 +2827,13 @@
       </c>
       <c r="D10" s="23"/>
       <c r="U10" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V10" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
         <v>59</v>
       </c>
@@ -2805,13 +2848,13 @@
         <v>60</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V11" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
         <v>62</v>
       </c>
@@ -2820,13 +2863,13 @@
       </c>
       <c r="D12" s="23"/>
       <c r="U12" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V12" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
         <v>59</v>
       </c>
@@ -2838,13 +2881,13 @@
         <v>0.7</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V13" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>62</v>
       </c>
@@ -2853,13 +2896,13 @@
       </c>
       <c r="D14" s="23"/>
       <c r="U14" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V14" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>59</v>
       </c>
@@ -2871,13 +2914,13 @@
         <v>0.62666666666666671</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V15" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>62</v>
       </c>
@@ -4316,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4675,21 +4718,21 @@
       <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="85" t="s">
+      <c r="O25" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4713,179 +4756,200 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:I9"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="54"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="84" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="86" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="E5" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="G5" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="J5" s="86"/>
+    </row>
+    <row r="6" spans="2:10" ht="72" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="88" t="s">
+        <v>113</v>
+      </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="63">
         <v>2013</v>
       </c>
-      <c r="C7" s="64">
-        <v>43524</v>
+      <c r="C7" s="64" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="65">
         <v>250</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="65">
         <v>120</v>
       </c>
-      <c r="F7" s="65">
+      <c r="G7" s="65">
         <v>110000</v>
       </c>
-      <c r="G7" s="65">
-        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
+      <c r="H7" s="65">
+        <f>VLOOKUP(I7,Tabla_mes,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="I7" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="66">
-        <f>(((D7-E7)/(1-Factores!C7))*1/1000000*Factores!Q7*F7*Variables!$N$3)*G7/12</f>
+      <c r="J7" s="66">
+        <f>(((D7-F7)/(1-Factores!C7))*1/1000000*Factores!Q7*G7*Variables!$N$3)*H7/12</f>
         <v>22041.403703703701</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="63">
         <v>2016</v>
       </c>
-      <c r="C8" s="64">
-        <v>43647</v>
+      <c r="C8" s="64" t="s">
+        <v>83</v>
       </c>
       <c r="D8" s="65">
         <v>220</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="65">
         <v>110</v>
       </c>
-      <c r="F8" s="65">
+      <c r="G8" s="65">
         <v>150000</v>
       </c>
-      <c r="G8" s="65">
-        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
+      <c r="H8" s="65">
+        <f>VLOOKUP(I8,Tabla_mes,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="I8" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="66">
-        <f>(((D8-E8)/(1-Factores!C10))*1/1000000*Factores!Q10*F8*Variables!$N$3)*G8/12</f>
+      <c r="J8" s="66">
+        <f>(((D8-F8)/(1-Factores!C10))*1/1000000*Factores!Q10*G8*Variables!$N$3)*H8/12</f>
         <v>22273.111111111113</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="67"/>
       <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71">
-        <f>SUM(I7:I8)</f>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71">
+        <f>SUM(J7:J8)</f>
         <v>44314.514814814815</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Lista_meses</formula1>
     </dataValidation>
   </dataValidations>
